--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/17_Bingöl_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/17_Bingöl_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DE16446-8BBF-4CD3-805E-895F1462AC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AEB4ACB-6496-4109-BE3A-0318C1E00968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{78E61D61-6E2A-4A7A-8D66-A2B56C74D3B7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{0E5430B3-E283-4175-BA7F-4EF7020D0A70}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -954,13 +954,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{12E8D9E5-D115-4705-8E10-9F0CA0C9D239}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{BBDE5BAC-67F0-4F71-98A8-5A672B7BA733}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{13EBBFF6-FB5B-4F0C-8EDB-001DDD80F843}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{B202B8A8-7BD1-4B6E-B37B-1F28FC13E027}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{2EF22196-C816-4D9A-8475-1E9B570545C3}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{3BD3D6BA-ED80-495E-9B84-ED0C2CFDB5A1}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{9C4FDFD9-9A8C-4CDE-9CB8-CB1B1CCC01A2}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{23E40B2D-2C47-4C18-A5C7-E7555C09607B}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{B5AE93B6-11B1-4D2F-9A7C-9AE1EFE351BC}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{08B4277B-4EC6-444D-9637-8B249E954877}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{F5206D84-B1B3-431C-958A-1D892443E647}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{27CBFB2A-F81F-4030-BB7D-DC3C8D9B2769}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{BF5329B1-2CE0-4F32-8144-F6616BABA3EF}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{B2240862-B02A-4EBA-A4D2-1B553110B0AE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1330,7 +1330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E90877D-8BA4-4D7D-AE68-295A712AF97C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3EDD4F-43FB-4C24-AC0B-40F3DB88DB48}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2555,18 +2555,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C228C9DC-1553-4CD4-8494-5115D965E8A1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9D92B3A9-34BA-4376-97E5-F51ABF5A1373}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3D8136F8-97EA-4D8B-A26D-7C95AB592CD9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1684DDB9-DC43-49FE-9DAE-7EDC91BE7486}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{94F36382-944D-4E28-B0F8-59D2BAE76AE6}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FFF4EE1D-9BE8-4EFE-9403-69A1D9E1CC24}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E527C768-9134-473B-8C9B-136212F9C4D5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{63C500C5-DA6F-4C1B-8143-7C9407106C39}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8F872689-602E-4D5E-9903-C9734208A2DB}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B8AC4B8C-982E-4FAB-93F5-7E48364A76F9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B66965A1-8B4B-49A8-96EF-B0E43BE3DCF4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A8B61173-3AC9-4CE0-8007-EE357DD86E57}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BFB2FB9E-61B2-4B86-B7E0-EB9BD6968EBD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D7A747D4-DCCD-43E7-8ECB-5EF968D64BCA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A25F8E04-2707-4E56-890E-9E5330FD91F2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{022F60E3-2E95-4FA7-A094-EE6DDFCCF053}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{121B46DC-15E2-4165-8459-5BB83F40655D}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0825EAC2-D4C2-4E94-BA7E-A46D631B3AB5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F1136FD6-CF46-4043-8BA8-55AA798A85EE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B84D9412-A151-4634-A3BA-FB0E338130CA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1901785C-2F05-47C6-BA87-489FE76378FD}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F3B706DD-D84D-47EA-928F-1A2A3FF10837}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{45C46348-C1FB-430D-AED7-E77ACF4ED43A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7BA4D4C4-F557-4B9A-99C5-D2D900573E52}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2579,7 +2579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6F0073-C742-41BD-922C-6732F0C47365}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59DDEB7-5A9A-46BC-A241-27BC8AACBE8A}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -3779,18 +3779,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{54E24D8F-9ACB-4E0B-A0C1-D55DA59BDA0E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7A23EEC6-6A73-450B-9957-4F940C47BEB3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6C0ED87D-BF3E-4018-9BF5-A36DE8286F45}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A8E33C41-A6EC-45F0-87D3-C303E4093B41}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F5C6BA77-F8DC-4D40-A6CA-CBF178E2223F}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7E677589-899D-43E9-A724-504AB9218C7F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F195007B-606A-4E92-BAB7-191751D27243}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C2C6D174-A5F7-4427-AF2F-36F62C4F2CE4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6F66462C-1D8E-4027-A462-579C5B07E0CC}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{1BE9F43D-0B4F-4AFB-B312-E432B89D61C7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D8C99945-23FD-4E55-9315-B63E02829F67}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A7566A89-1850-4821-B3C0-B8A04683FF40}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4B8A54A6-4E1D-4121-9B16-E30CD1657756}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{92ABD4E1-0418-406C-8D17-AAFDD1B6F91C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0F6D0557-2FEC-43C9-9487-07AF7762A40C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7A6ED958-7160-4863-B4B5-1BD76D0E4F5A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5820590B-30EF-4B2C-95B5-63ACACE3AFF2}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8E1FCADA-FE85-4C27-8A5E-03358E9059C7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{019DC96D-8869-4150-A9C6-2C60703C681E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3CC97BD1-C9D7-4470-9143-E6C29A24E070}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{99A9BE6E-AB25-4C25-83B4-C51F5FC7E6DB}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{70AC6602-A0C4-43C8-A3E9-07F16820446B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1CC05109-5657-4C67-B9CD-527147EA1039}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1782B641-61BB-4AFD-9A47-D4E1B61C4858}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3803,7 +3803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3669A0F2-E066-48E4-9FCC-CB81C461B255}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B7D502-CE8E-4368-AE76-616308A8A716}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -4999,18 +4999,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1E69E5E1-B1C9-49C7-9997-0B543DBA20E4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ECF74336-B0AE-4B32-9E00-3917CDC8810A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{56470418-B4BD-4D69-BBEE-AFF899A23B3C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{550D56C8-2196-4FE2-AD3A-9E071B9EDB0F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AE086B7E-F68B-42EB-8E48-F28DF5D687AE}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FF30FA3D-A199-456D-A233-CC804604E3A0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B0C1770E-1992-41BC-AE72-93BE9BECCE7C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{668ADC74-5A93-4692-BC38-E5FAF6EAE3D3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4967A81A-6A6C-4DDF-8DAE-A6718E949978}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6FE96FEB-9409-4802-8754-229CB819CE32}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FE6C19A3-475A-45CD-B830-11D87CAB7327}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CA96DD4B-19B4-4521-95F7-2F1E2E947B58}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5F8CCE13-E93A-435E-921B-43F940C61FF1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EEAD6BA5-3983-4D68-91B2-97169FF85C28}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0E77675A-70CA-4E00-9A1F-AA90396A8DBC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6A594F00-0BC4-4743-93BD-14673A33EA78}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B80C08CA-7BB3-42B5-A37D-2E9766AFDF3A}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{ECB7D746-F131-409F-8578-880F7E2E7075}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FE73C1CD-7326-45F0-9349-16F4B6E9F2DD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{227CA27F-2EE1-4A65-B507-F68A92E54306}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2D7FE2EC-ADAB-4731-AD28-94B9173492D1}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{EFBF1DD5-2D72-4C5B-B1A0-9A93B6296A5C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{51F866C4-1E36-48E9-9402-553917A6BA38}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D0F99B49-774A-4636-99DF-DFD63DCC9E8D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5023,7 +5023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56CF9D9-7E1C-4EE0-834E-B5B648B29564}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A51ECD7-C9C4-4DC6-BDBD-3BE0FFE24308}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6211,18 +6211,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BC5EEAB0-5F1F-4A14-92F7-5BCF0BEDC41B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2F945820-0E75-4125-B7B3-4802A61E575A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8CDEA208-942E-4F09-8511-CCE74D68911B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C449256B-481B-4F0E-A5A2-7F0C5221EE15}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1F6202E3-7A79-43C2-9607-A7C8E6094417}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4A25FAB2-F4C1-4940-8D41-BCE60442EE7F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{94F50809-CE19-472B-99A3-9B04FBEF6122}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D9EAB7AA-9E29-4A3B-B587-F63F3ECF586E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{03093E33-46E9-42F8-BD1C-28204C0DD7E4}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6A7D586A-47C8-40C1-A31E-257F4024C468}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5514A052-0608-4358-A80C-7123F7A73FBC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3BA6E738-A776-40A7-A176-55BFA3732145}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F3907C53-64A3-456B-B851-990D5C1F0D79}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7633F0A2-52A2-4DC5-BD97-54F63755648C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DDF33F7A-70CD-40A4-961D-DE5CBB026E87}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{58EF113B-DDC1-4242-A7A4-64A7BE6F33CD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{02AADD40-4677-4863-BDA1-010D981B5415}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C4830BAF-421A-422E-9585-84D0D2318A2F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DBF76725-C6EA-4C83-8B91-76EAAD5E7AE0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{881BB561-16D6-4E66-815A-DE7B033C6A8E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B503FD16-D79A-4405-A975-A9D91EBC90AE}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B29E74B4-DE8F-4DDF-B302-A3D5596CC09E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1E698628-8B73-48B6-8FDF-02EF92B45DCE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3519E26E-4FE9-4F29-9696-7D3828C9B3E2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6235,7 +6235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D60B7A-6CD3-492A-8BA0-15BA1C976430}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED43D621-30D5-4EFE-8E47-368D1A5BD80D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7458,18 +7458,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B3415F4D-7816-4143-9D30-6509D06B9158}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{666D34E2-48B6-49C5-A635-18519D675029}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{04882E0A-DCF9-4973-9B95-36B57ADB9207}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AFF4123F-F472-4669-8D24-ABD206AE9A25}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{59E3F72E-F945-4419-A2B5-17A278ACDBE4}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{96B0EA90-F6BB-4D11-B654-FD88FFCBC8A8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{94D44879-FB74-4DDD-9F72-1EF597C410BF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C73A318A-C6FA-431D-8F9A-2FC4AFE93422}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4953C8EA-1315-44D0-A9D7-15564FE1EC17}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E2433D77-D476-4444-AE36-8FB71468F4E2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{20FF69CA-8F93-42FD-B4F7-6B1A235CC1F4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{12084B2E-2A38-4DCD-A9A4-24C847468236}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6BB9C29A-1616-4051-A673-0976AC3630E5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F6155C11-8D7E-43A6-99E1-CA5B9A07C31A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DE1CD1A5-A4B3-4F47-9A2A-9C880539EBC1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0940F7F7-825F-455C-A13E-041C33E837D8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8F250B44-E379-42F7-BDBA-E756FA845CC5}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BC66B90C-5E56-4A4D-AD89-470A7ED550C3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F1857981-7266-4204-8D81-9F4D1138D4D2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0DBF7F20-13A9-4208-8482-C96D8309C07A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{03EB0A90-E42D-47A0-B498-395AD3B3A838}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DBB6F0C1-F9B9-4EFC-AAA3-1D12A724BBCC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ADBFE7E0-5FCB-4D81-B615-D71FF8ADC06A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{304744A4-8158-4C99-AA9B-0069888C6525}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7482,7 +7482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57A81CA-545C-4C28-B1F1-EF1313232BB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DE5CB1-AABD-4631-9BD5-636E0E620255}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8705,18 +8705,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1D10F6F4-36DA-4F96-8D77-0D9B42F39F1D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BCDC6B67-5F91-4613-AF77-F45F55A99C67}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E6208265-43A2-4A36-8C37-E9FEE9659A4B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A67EABD4-6A71-4FDF-93B0-34F275AF5A63}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F6949D35-EED8-4B22-84B1-B58EA56D30CC}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{22471A96-B4A3-4F10-B4A0-8A0748CCEEB8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9652F071-E903-406B-96A9-ACB8357A697F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EDA9A552-EBB4-41AE-B2C4-4FA34547FF6B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8C813B40-94CD-40EE-BE39-0DF55F7C2BA1}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FD0A3262-08D0-46A0-A2DD-3BBF3B1A4E91}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A86EB4E1-B5B3-4122-9C53-328A379BDFA2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7D7D7DCF-25AF-4A76-BBA6-1B42CDAB051D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1200E41A-A45C-48F8-A654-6D928019F6D8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5D4ACFFC-2AC8-47F8-BDC3-A614A65A8BF9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EC7454C2-EDA2-4742-8108-A14FD617411E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A812030E-CA8F-4F72-9C1B-585F7762F585}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B520B3DF-748C-4488-ACB8-A4329A212A99}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AC0A40B9-7AC9-4AD1-804A-5B57D5CBFAA9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CF084213-5318-4162-B963-34F6DA573F19}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{36F5E564-83DE-46DE-B52E-61D8FAF954DF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C216B73A-6FED-45D9-AB46-BA8F5DB86CB9}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6B067AFF-219C-4171-89DE-801C0E222555}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{42F6EB64-9F0E-463D-9A56-6D3BE974EC00}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6FA10F45-A48A-41A9-81E4-5D14DD54E248}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8729,7 +8729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E9CB6D-5FA2-4B47-8C4E-2C8A4BA39135}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9BCEBA-2A9E-40AD-9A20-D785A26C724D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9952,18 +9952,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BB6DE21E-B8D8-4173-8530-94F4B4BD5AB9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{63B11CB3-0156-4F32-91DA-C1AFC236899B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{155623FB-A0FF-409C-A28A-170516E1682A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{ABDB7D73-74D8-4A10-AD0F-6B42E70031EB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7B74DB18-E3F3-4097-9ECE-0D3F28C55015}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{22C43DFE-F3E8-46B2-9668-FCEBE1C3B4DD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A45D7295-42C4-4BB5-BEF4-1FFD67305CC2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B01B571E-C1EB-4098-9C73-54F29144306F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A37424E7-E025-488D-A5E0-28E114F3BF58}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{47F31691-40E4-4FFB-B816-CFA1119ECB96}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{51F00D18-D4DE-4E12-BE7D-F728C5BEC7E1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5FC66BE9-87B3-4564-9E71-F35CC785921C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{36BB64A8-1056-48A5-B1B7-C049C849C46D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8349843F-1474-4CC9-BBF3-B1FEDA5103C6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{66BC6DCE-C4CE-4EBA-87FB-82C7250E6CD5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D3CAA87F-65D3-47DA-8DD6-C4E1C6AF3EB6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D6CDC2AF-4937-42EA-A8E4-3FED9D477058}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0D01EF64-43C5-4D94-A911-4B157DD76198}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A6BAE710-9E86-47D1-A6B6-467E3641F9C3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{19BCCD96-33B4-4DB4-9334-5C45EBA76F27}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3BBB5575-DAFF-483A-A1B6-9BFADB419126}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D45E2001-9509-4F79-B91D-7D35323E8EA7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{865E393A-7B83-4C47-A1E7-C39B522DF88A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3693F29E-9F48-44AE-B206-E9FC841C2B53}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9976,7 +9976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34460836-D541-4DA4-BF23-26AC5B3CB698}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47D984F-8CD2-4025-A7DB-11A7AA456A10}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11199,18 +11199,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FD859590-C16E-46C4-ACD9-50ABE8FAB5CC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A4CB48B6-5438-4655-82F7-8EFD61BAA328}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EEB15D26-EE12-41AF-9AAF-A400261B676F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7AAE972A-BDFF-476C-ADFF-0EBA8FCA4812}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{039A2965-B92D-4107-A2C6-5846FB9A665D}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D0E1E7AA-B07D-433C-AD76-69F26387AADA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{476ED2DB-0208-4F5D-867A-0BD7BC7D1D3D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{77333AC1-251F-4584-B4B4-C8AC9A76DEE3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0032E9C2-C720-4583-B87D-5AD5E3ED81AB}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{1547F90E-3431-4FF1-B2FC-92CC87FA22B4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{60067F4F-667D-47EB-94FB-9822DD9F710F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{611068F5-B0B2-49F9-AB97-D4802CCD18E0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A2D8B786-805B-4616-AB5C-CF9855533CB0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{685D6B92-424F-49C2-8F58-EC6A57C26E9B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D393AE3A-0DDE-448A-BC9F-7E7CE3F21CA6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6987D6B5-0A26-4ECC-930A-4147386EAAE4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EAC3ACCD-BA90-4738-8B96-582071B5C80F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B4A9805F-ADB9-4031-BB17-003528065FE7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{737F4E6A-48CA-44A4-B8C4-1C7FDA2F19AC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{539EE827-5EDD-41A7-9555-7DE4F5F810A0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F8215E60-428C-4314-8385-FABE8313348F}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4B9E504A-08B1-4773-84F3-60DB6494AF02}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7092F599-1B26-4E11-B092-BB557BBF4E29}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CDF3F574-A2F3-43AD-980C-C7652CEFADEB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11223,7 +11223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477E168E-210D-48E8-9917-39B5BAC7F11E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82A931E-40BF-4939-88BA-1FF732C39897}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -12439,18 +12439,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E6A74CEE-9265-4B95-9404-011B64328333}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BE4546FE-B926-46BD-ADD1-403E918A5262}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F573ED91-5F18-4E63-B817-0E32B4D249DF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E3303E42-5682-475A-8E42-8430FB261011}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5B80812E-0DEA-45E7-A754-0A14379F58E6}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{21B24321-6483-4D92-82CA-59EF95F2B71D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A582BE16-457C-4737-80FA-11AA0BE8B250}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{45232A41-C71B-4FC3-BD95-7DF34D7DF4D3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{90EAA2BB-267D-4F23-8535-7AD8D7285839}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{BAF33B6A-508D-4462-9574-EE6EEDDE7346}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5F086233-7B4B-4439-B658-E277D8E07658}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{134049AA-551F-4462-8EA8-BC20C3774A28}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8F5D4E46-FDA7-4B7B-A664-96B14EFBAF3F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{46CC4318-8571-4D5D-9CFC-FE2F20F1ECE8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A081FF63-E3C5-4AE6-B453-C000A634E693}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FB9BE9C7-43E3-4A26-8D18-1DE73F12B7F1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ABFA9121-B9F6-424A-94CA-26AFB8495553}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8861AD9B-7B9D-46EC-A49A-F721C40B8E12}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{92C3BB54-4ABE-42B7-83E3-A5EE4BCCF400}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{86CB2C2C-EA7C-49F3-B1F7-0EB376A53295}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{843D2FD0-7571-4012-B827-2E45CCF92460}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D4DFC0BA-B053-4ED8-BE90-01F8FCBF1168}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B915D5DD-5717-4134-9555-EB4B480E50FD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C79F9340-D820-4E9B-8EAE-02A72D51CD9A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12463,7 +12463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CDA1994-E9D6-4B89-A38A-92FC255DEC0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB6C28D-4B77-4D12-874A-4D973EDF617D}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -13671,18 +13671,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9E0A3998-9754-40F4-B992-469D8C50787D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{56C6A134-37C2-45AB-A441-0192ED3B7106}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6E91ED61-BEA9-4C8B-8608-955B90D0C6AF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A8E19CCA-F7C6-4F7B-8EAE-6E22761C3192}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2B4C2A35-BC30-49EA-A24F-58E5937AA2D5}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{22796549-D838-4F88-A7E1-F0DB414C5C78}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4EF68D7B-BDA4-4994-B884-748D4BF943C5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B6D6E344-0644-442F-9B6B-14750BFE1101}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2FA3DE14-75F4-400B-9BED-8DD66BDA3840}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{91575F91-40AF-460A-B390-81E610FECDF2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B802AAB7-907E-4D05-BC82-18C691637405}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C48FA74E-9F14-49E2-B6BF-A85E54C996BD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8AE22087-6EF2-4DA2-9271-58380814DFC8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4D66C39C-3B15-4AC1-863A-C9F9A9E2ECFF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4FB83111-318A-4E14-8E22-B63FB1DED507}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{188D1746-4A1E-45E6-93E8-368B612E4A51}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0B1FC64B-9A9D-4B4C-BBC6-CE02ACE5737D}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5745610C-545F-447F-93B0-590BBD332484}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FF53134F-BB4E-4104-964C-EA9C4BF42550}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{41F95F51-AA87-4424-848F-C2B3745A5D93}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E3661E70-71C6-4992-81A3-59CA84F3112F}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{50D78B05-5D6E-4E8D-BC53-D36FA3A242C3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9CCF6FFF-5938-47CA-9433-00C127F55A31}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DB186A78-72C3-4665-BDD9-E6C942DBA64B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13695,7 +13695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FE5E1A-7E42-4E0E-8379-A0AB6E9EAA55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294B8FE8-6638-4AA7-86FC-A0143B20898D}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -14903,18 +14903,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E597BCDB-09EC-41F3-AE4B-925247E7D862}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{91675D36-49EB-4D79-A7FB-B3C7BE4A0C24}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4C7B800F-6895-48DE-AF9B-EF6739BE3E8C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{702BF820-530F-4281-95E2-04B94EB27A58}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CBB84997-2F99-4984-9AD9-85965371202C}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{077A0591-694E-48A3-837C-7B94E1ADE22F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F3526D40-4880-4514-BEEF-994F49410800}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5D9212A0-4804-4FBC-9E1E-C188C68C7014}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6530E108-829A-4644-B7F1-F38466567510}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{320B3743-8114-4BA5-A891-C144124865AA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{24062026-2861-4245-B42B-F7545824F6B7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0A8BD012-6F92-4A4E-818B-74642C3066DF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E841ED15-CB7D-48F8-ADFC-4C694EABCED4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C63E2D3D-F750-48BB-81C7-E06EC93C0F00}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C3B7A877-A7B2-4049-9144-86A5C8DC9EA0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0CD081E5-7C18-4182-A61C-5BEAC4092AEB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{33689BF6-8348-4DDB-ABBA-C2E153CB9E0B}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FB889F63-0C35-4EE4-ACC2-CC5C51D99721}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F689B1E5-01DB-4C44-9B2A-5316F6964FEC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F15EB9E1-2D71-4AC3-AC30-851AAF9912A9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EC1F77DB-79B4-4905-89E0-75F58717CFBB}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E8721443-CC22-475C-92ED-6D7C765C7013}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C07224D6-C6B6-4728-A3D9-802DD921D98B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7318E8EB-BF25-4E7E-9D0C-88A518A49471}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14927,7 +14927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BEB463E-3A35-4403-BC37-BE3A97C9F1A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1008A809-613C-43CE-B24E-F19EDF15073D}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -16135,18 +16135,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1AA66955-4867-49A6-8F69-C5799112798C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{173FFCD5-108A-4FC1-B932-16076FDA4BC4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{70F29399-031F-4B0C-8C41-0D495A4320E6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{66C8B5C2-2E1C-4996-B6D5-DA0CB580AA95}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CBE2AF85-0BAB-4441-B870-A49C81C71D05}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{89D5517B-EA8A-44B0-8F86-4FB552BB734B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9C7079E1-1AAD-414A-B171-439A1173B78B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CA287119-EEFD-4976-AE98-D43D198171E3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E6756889-1BB4-4692-9EF3-0E71893E6822}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{EC061169-E822-4D74-A5AD-038A6688E6A7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B92613BF-7554-4BCF-A8EA-824A7E4AD351}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8B83580E-5452-40F0-831D-AAB1B688740D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{95E92BBC-53D2-435F-ACCC-43631E9B065A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8F7398B9-6CA6-4F5F-8CEB-892A0CB848E6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E3F46510-5E96-47AA-9BE0-F55E7119D655}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{65887A7D-C1FE-4A89-BD6F-50A53EC79851}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A7FB0B0F-7A36-47A4-A996-07712469575B}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{168B7B69-0F7E-48C2-BCA9-08B80FB8338C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6E8AEB57-FD8E-4C03-8511-3A75FF02B8AC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F30FBBC2-D5E5-4339-8F9D-52958F2AF7E2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B549F8A7-BC9C-4220-957A-5B1A4988B2B5}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3DEDC5E9-E16E-42CF-BDEE-E9A1A192F93A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EDD5B718-5711-48CB-8DDB-9C6CE6D1D734}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3444DEC5-0F6F-4579-B291-FA330A409FB0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
